--- a/public/Exam_Format_Category.xlsx
+++ b/public/Exam_Format_Category.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F42BDB-1C72-4EAE-BC3B-B7CDB33FA105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA03195-1C8C-4915-B541-2B3A6753975F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Category 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Category 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Category.2" sheetId="1" r:id="rId1"/>
+    <sheet name="Category 2.5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="5">
   <si>
     <t>Some question?</t>
   </si>
@@ -372,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,12 +383,11 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -398,14 +397,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -415,10 +411,91 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="b">
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -429,10 +506,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F0EBF9-9BD9-4180-BAE2-B3956D87C050}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,11 +517,10 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,14 +530,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -471,10 +544,91 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="b">
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="b">
         <v>0</v>
       </c>
     </row>

--- a/public/Exam_Format_Category.xlsx
+++ b/public/Exam_Format_Category.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\lms-lpc-master\lms-lpc-master\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA03195-1C8C-4915-B541-2B3A6753975F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081728B1-9563-4CFC-8478-640C1E13F2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="2364" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category.2" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -65,18 +65,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,14 +78,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +383,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,21 +405,21 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="b">
+      <c r="D1" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -429,17 +437,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="b">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -453,21 +461,21 @@
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="b">
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -481,21 +489,21 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="b">
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -509,7 +517,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,17 +542,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="b">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -558,21 +566,21 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="b">
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -586,21 +594,21 @@
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="b">
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -614,21 +622,21 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="b">
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
     </row>

--- a/public/Exam_Format_Category.xlsx
+++ b/public/Exam_Format_Category.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\lms-lpc-master\lms-lpc-master\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081728B1-9563-4CFC-8478-640C1E13F2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A62746-DD73-4636-A79D-597C0CCD9406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="2364" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="2364" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category.2" sheetId="1" r:id="rId1"/>
@@ -380,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -391,11 +391,12 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,11 +406,14 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,11 +423,14 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,11 +440,14 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,11 +457,14 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,11 +474,14 @@
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,11 +491,14 @@
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,11 +508,14 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +525,10 @@
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="b">
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -514,10 +539,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F0EBF9-9BD9-4180-BAE2-B3956D87C050}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,10 +550,11 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,11 +564,14 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,11 +581,14 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,11 +598,14 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,11 +615,14 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,11 +632,14 @@
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,11 +649,14 @@
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,11 +666,14 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +683,10 @@
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="b">
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="b">
         <v>0</v>
       </c>
     </row>
